--- a/Final table data.xlsx
+++ b/Final table data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Interview GS\Program file\Final Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{126BE1FA-F7C5-4368-8161-251CAD18AEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD997442-92FE-4E0F-86F7-8FA1CE5A58EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{29696323-1E68-45D2-9D6B-97B450E2E1BC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="53">
   <si>
     <t>pos_site_id</t>
   </si>
@@ -57,39 +57,15 @@
     <t>Sale</t>
   </si>
   <si>
-    <t>2AW4230701</t>
-  </si>
-  <si>
-    <t>2AW4220701</t>
-  </si>
-  <si>
     <t>Return</t>
   </si>
   <si>
-    <t>2AE4820901</t>
-  </si>
-  <si>
-    <t>2AX6360701</t>
-  </si>
-  <si>
-    <t>1AV5420000</t>
-  </si>
-  <si>
-    <t>MD2</t>
-  </si>
-  <si>
     <t>CATMAIN</t>
   </si>
   <si>
-    <t>2AG0490901</t>
-  </si>
-  <si>
     <t>2AH4930901</t>
   </si>
   <si>
-    <t>2AA4481701</t>
-  </si>
-  <si>
     <t>2AC1080701</t>
   </si>
   <si>
@@ -99,30 +75,9 @@
     <t>INETMAIN</t>
   </si>
   <si>
-    <t>2AB1530801</t>
-  </si>
-  <si>
     <t>MD1</t>
   </si>
   <si>
-    <t>2AC1020801</t>
-  </si>
-  <si>
-    <t>2AN4220701</t>
-  </si>
-  <si>
-    <t>6AE5020100</t>
-  </si>
-  <si>
-    <t>2AB9990601</t>
-  </si>
-  <si>
-    <t>6AE8840100</t>
-  </si>
-  <si>
-    <t>2AH5130901</t>
-  </si>
-  <si>
     <t>CATPROSP</t>
   </si>
   <si>
@@ -132,43 +87,103 @@
     <t>RTLOPCS</t>
   </si>
   <si>
-    <t>2AW3320801</t>
-  </si>
-  <si>
-    <t>2AM3440501</t>
-  </si>
-  <si>
-    <t>2AT0420701</t>
-  </si>
-  <si>
-    <t>2AB1920701</t>
-  </si>
-  <si>
-    <t>2AW5620801</t>
-  </si>
-  <si>
-    <t>2AM3234701</t>
-  </si>
-  <si>
-    <t>6AE5040100</t>
-  </si>
-  <si>
-    <t>2AG3220901</t>
-  </si>
-  <si>
-    <t>2AN4231701</t>
-  </si>
-  <si>
-    <t>2AT5120701</t>
-  </si>
-  <si>
-    <t>2AW4230801</t>
-  </si>
-  <si>
     <t>2AM8450701</t>
   </si>
   <si>
     <t>2AH5130801</t>
+  </si>
+  <si>
+    <t>2AC1040701</t>
+  </si>
+  <si>
+    <t>5AE4820913</t>
+  </si>
+  <si>
+    <t>2AL8220701</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>2AE3030701</t>
+  </si>
+  <si>
+    <t>2AG3220801</t>
+  </si>
+  <si>
+    <t>2AF5680601</t>
+  </si>
+  <si>
+    <t>2AJ7520901</t>
+  </si>
+  <si>
+    <t>2AL8220801</t>
+  </si>
+  <si>
+    <t>2AE9240701</t>
+  </si>
+  <si>
+    <t>2AL9920801</t>
+  </si>
+  <si>
+    <t>2AG0490701</t>
+  </si>
+  <si>
+    <t>2AG9341701</t>
+  </si>
+  <si>
+    <t>2AJ7520701</t>
+  </si>
+  <si>
+    <t>2AL9940801</t>
+  </si>
+  <si>
+    <t>2AM9640701</t>
+  </si>
+  <si>
+    <t>2AW0040601</t>
+  </si>
+  <si>
+    <t>2AW5620701</t>
+  </si>
+  <si>
+    <t>2AN4230701</t>
+  </si>
+  <si>
+    <t>2AU1020701</t>
+  </si>
+  <si>
+    <t>2AC8320701</t>
+  </si>
+  <si>
+    <t>2AW0040701</t>
+  </si>
+  <si>
+    <t>2AW3320601</t>
+  </si>
+  <si>
+    <t>2AW0040501</t>
+  </si>
+  <si>
+    <t>2AW0040901</t>
+  </si>
+  <si>
+    <t>2AW3320701</t>
+  </si>
+  <si>
+    <t>2AR7740701</t>
+  </si>
+  <si>
+    <t>INETOUT</t>
+  </si>
+  <si>
+    <t>5AC9840913</t>
+  </si>
+  <si>
+    <t>2BA2520701</t>
+  </si>
+  <si>
+    <t>2AN4230601</t>
   </si>
 </sst>
 </file>
@@ -256,17 +271,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>169447</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>132333</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>94048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160BFA1F-A488-B14C-BB55-CD6BF8C835E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DFE3F4-DC83-7D13-1B0B-67C523B22F2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -283,7 +298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8039100" y="190500"/>
-          <a:ext cx="16019047" cy="8133333"/>
+          <a:ext cx="18285714" cy="9619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -637,14 +652,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>132</v>
+      <c r="A2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="2">
-        <v>766190000</v>
+        <v>2666840701</v>
       </c>
       <c r="C2" s="2">
-        <v>201801</v>
+        <v>201805</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -653,128 +668,128 @@
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
+        <v>1806</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2770720901</v>
+      </c>
+      <c r="C3" s="2">
+        <v>201807</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3840520802</v>
+      </c>
+      <c r="C4" s="2">
+        <v>201805</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
         <v>4</v>
       </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>134</v>
-      </c>
-      <c r="B3" s="2">
-        <v>787610000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>147</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
       <c r="G4" s="2">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>150</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2598420901</v>
       </c>
       <c r="C5" s="2">
-        <v>201801</v>
+        <v>201930</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>142</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2882130801</v>
+      </c>
+      <c r="C6" s="2">
+        <v>201938</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>79</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>150</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="2">
-        <v>201801</v>
+        <v>201815</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -783,76 +798,76 @@
         <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2">
-        <v>218</v>
+        <v>620</v>
       </c>
       <c r="H7" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>132</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3785180602</v>
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>201801</v>
+        <v>201822</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>132</v>
+      <c r="A9" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>6831981500</v>
+        <v>2840520801</v>
       </c>
       <c r="C9" s="2">
-        <v>201801</v>
+        <v>201806</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>142</v>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>2990680701</v>
+        <v>2598420701</v>
       </c>
       <c r="C10" s="2">
-        <v>201801</v>
+        <v>201831</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -861,82 +876,82 @@
         <v>9</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2">
-        <v>54</v>
+        <v>767</v>
       </c>
       <c r="H10" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>142</v>
+      <c r="A11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>752204000</v>
+        <v>2912480801</v>
       </c>
       <c r="C11" s="2">
-        <v>201801</v>
+        <v>201846</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>147</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6831941800</v>
       </c>
       <c r="C12" s="2">
-        <v>201801</v>
+        <v>201812</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>150</v>
+      <c r="A13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>2785120601</v>
+        <v>2840520801</v>
       </c>
       <c r="C13" s="2">
-        <v>201801</v>
+        <v>201826</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -950,253 +965,253 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>2785180701</v>
+        <v>2342730801</v>
       </c>
       <c r="C14" s="2">
-        <v>201801</v>
+        <v>201803</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>473</v>
+        <v>89</v>
       </c>
       <c r="H14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2785120701</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>201801</v>
+        <v>201805</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>621</v>
+        <v>84</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>139</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2961710701</v>
       </c>
       <c r="C16" s="2">
-        <v>201801</v>
+        <v>201820</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="H16" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>147</v>
+      <c r="A17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B17" s="2">
-        <v>553801000</v>
+        <v>2775940901</v>
       </c>
       <c r="C17" s="2">
-        <v>201801</v>
+        <v>201819</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="H17" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>152</v>
+      <c r="A18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B18" s="2">
-        <v>174450000</v>
+        <v>2259240901</v>
       </c>
       <c r="C18" s="2">
-        <v>201801</v>
+        <v>201803</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>118</v>
+      <c r="A19" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <v>201808</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>69</v>
+      </c>
+      <c r="H19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>128</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>129</v>
-      </c>
       <c r="B20" s="2">
-        <v>2990680801</v>
+        <v>2668941601</v>
       </c>
       <c r="C20" s="2">
-        <v>201801</v>
+        <v>201819</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
+        <v>201813</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>490</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>69</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>132</v>
-      </c>
-      <c r="B21" s="2">
-        <v>806490000</v>
-      </c>
-      <c r="C21" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>45</v>
-      </c>
-      <c r="H21" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>135</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2598481701</v>
-      </c>
       <c r="C22" s="2">
-        <v>201801</v>
+        <v>201804</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="2">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>135</v>
+      <c r="A23" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2">
-        <v>201801</v>
+        <v>201806</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1205,186 +1220,186 @@
         <v>59</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>137</v>
+      <c r="A24" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B24" s="2">
-        <v>2916690801</v>
+        <v>2870720801</v>
       </c>
       <c r="C24" s="2">
-        <v>201801</v>
+        <v>201804</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>142</v>
+      <c r="A25" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="2">
-        <v>2701640701</v>
+        <v>2920390801</v>
       </c>
       <c r="C25" s="2">
-        <v>201801</v>
+        <v>201811</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>143</v>
+      <c r="A26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B26" s="2">
-        <v>3668931802</v>
+        <v>2906560701</v>
       </c>
       <c r="C26" s="2">
-        <v>201801</v>
+        <v>201813</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2">
-        <v>58</v>
+        <v>590</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>149</v>
+      <c r="A27" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
-        <v>201801</v>
+        <v>201926</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>89</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2464540801</v>
+      </c>
+      <c r="C28" s="2">
+        <v>201816</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2">
+        <v>845</v>
+      </c>
+      <c r="H28" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2775940701</v>
+      </c>
+      <c r="C29" s="2">
+        <v>201804</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2">
         <v>2</v>
       </c>
-      <c r="G27" s="2">
-        <v>158</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>146</v>
-      </c>
-      <c r="B28" s="2">
-        <v>5668920913</v>
-      </c>
-      <c r="C28" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>64</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>149</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2968530701</v>
-      </c>
-      <c r="C29" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
       <c r="G29" s="2">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="H29" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2819720801</v>
+        <v>11</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C30" s="2">
-        <v>201801</v>
+        <v>201917</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F30" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1392,62 +1407,62 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2916430701</v>
+        <v>11</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C31" s="2">
-        <v>201801</v>
+        <v>201819</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G31" s="2">
-        <v>345</v>
+        <v>699</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2">
-        <v>2916420701</v>
+        <v>2785120601</v>
       </c>
       <c r="C32" s="2">
-        <v>201801</v>
+        <v>201818</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2882140701</v>
+        <v>19</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C33" s="2">
         <v>201801</v>
@@ -1456,131 +1471,131 @@
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2">
-        <v>201801</v>
+        <v>201820</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G34" s="2">
-        <v>147</v>
+        <v>573</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>138</v>
+      <c r="A35" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B35" s="2">
-        <v>619990000</v>
+        <v>2464540701</v>
       </c>
       <c r="C35" s="2">
-        <v>201801</v>
+        <v>201825</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G35" s="2">
-        <v>75</v>
+        <v>1580</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>132</v>
-      </c>
-      <c r="B36" s="2">
-        <v>7223620000</v>
+      <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C36" s="2">
-        <v>201801</v>
+        <v>201816</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2">
-        <v>14</v>
+        <v>851</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>146</v>
-      </c>
-      <c r="B37" s="2">
-        <v>723420000</v>
+      <c r="A37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C37" s="2">
-        <v>201801</v>
+        <v>201810</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G37" s="2">
-        <v>14</v>
+        <v>672</v>
       </c>
       <c r="H37" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>146</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>26</v>
+      <c r="A38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2788030901</v>
       </c>
       <c r="C38" s="2">
-        <v>201801</v>
+        <v>201814</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
@@ -1589,125 +1604,125 @@
         <v>9</v>
       </c>
       <c r="F38" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G38" s="2">
-        <v>79</v>
+        <v>1000</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>158</v>
-      </c>
-      <c r="B39" s="2">
-        <v>764001000</v>
+      <c r="A39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C39" s="2">
-        <v>201801</v>
+        <v>201828</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2">
-        <v>12</v>
+        <v>445</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>150</v>
-      </c>
-      <c r="B40" s="2">
-        <v>764004000</v>
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C40" s="2">
-        <v>201801</v>
+        <v>201819</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="2">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>182</v>
+      <c r="A41" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B41" s="2">
-        <v>7077821801</v>
+        <v>3785131702</v>
       </c>
       <c r="C41" s="2">
-        <v>201801</v>
+        <v>201813</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G41" s="2">
-        <v>9</v>
+        <v>967</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>127</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>27</v>
+      <c r="A42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3668941702</v>
       </c>
       <c r="C42" s="2">
-        <v>201801</v>
+        <v>201818</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
       </c>
       <c r="G42" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>127</v>
+      <c r="A43" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B43" s="2">
-        <v>2259240601</v>
+        <v>2882130701</v>
       </c>
       <c r="C43" s="2">
         <v>201801</v>
@@ -1716,76 +1731,76 @@
         <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" s="2">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>128</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>28</v>
+      <c r="A44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2882130701</v>
       </c>
       <c r="C44" s="2">
-        <v>201801</v>
+        <v>201832</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
       </c>
       <c r="G44" s="2">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="H44" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>131</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>29</v>
+      <c r="A45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2984220801</v>
       </c>
       <c r="C45" s="2">
-        <v>201801</v>
+        <v>201820</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
       </c>
       <c r="G45" s="2">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>135</v>
+      <c r="A46" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B46" s="2">
-        <v>2812520601</v>
+        <v>2968530701</v>
       </c>
       <c r="C46" s="2">
         <v>201801</v>
@@ -1794,39 +1809,39 @@
         <v>8</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="H46" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2666820801</v>
       </c>
       <c r="C47" s="2">
-        <v>201801</v>
+        <v>201814</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2">
-        <v>296</v>
+        <v>49</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -1834,39 +1849,39 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B48" s="2">
-        <v>2806230701</v>
+        <v>2984220801</v>
       </c>
       <c r="C48" s="2">
-        <v>201801</v>
+        <v>201829</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G48" s="2">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="H48" s="2">
-        <v>5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>135</v>
+      <c r="A49" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B49" s="2">
-        <v>2598420701</v>
+        <v>2775940801</v>
       </c>
       <c r="C49" s="2">
-        <v>201801</v>
+        <v>201814</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>8</v>
@@ -1875,114 +1890,114 @@
         <v>9</v>
       </c>
       <c r="F49" s="2">
+        <v>14</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1233</v>
+      </c>
+      <c r="H49" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3668920802</v>
+      </c>
+      <c r="C50" s="2">
+        <v>201806</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>58</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="2">
+        <v>201802</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>108</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2785140701</v>
+      </c>
+      <c r="C52" s="2">
+        <v>201823</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2">
         <v>2</v>
       </c>
-      <c r="G49" s="2">
-        <v>118</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>135</v>
-      </c>
-      <c r="B50" s="2">
-        <v>723420000</v>
-      </c>
-      <c r="C50" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50" s="2">
-        <v>28</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>136</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2">
-        <v>56</v>
-      </c>
-      <c r="H51" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>136</v>
-      </c>
-      <c r="B52" s="2">
-        <v>752206000</v>
-      </c>
-      <c r="C52" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="2">
-        <v>1</v>
-      </c>
       <c r="G52" s="2">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="H52" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>140</v>
-      </c>
-      <c r="B53" s="2">
-        <v>5767891913</v>
+      <c r="A53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C53" s="2">
-        <v>201801</v>
+        <v>201827</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
       </c>
       <c r="G53" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -1990,97 +2005,97 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B54" s="2">
-        <v>2924420801</v>
+        <v>2912480801</v>
       </c>
       <c r="C54" s="2">
-        <v>201801</v>
+        <v>201802</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>98</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2907780701</v>
+      </c>
+      <c r="C55" s="2">
+        <v>201805</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2">
         <v>16</v>
       </c>
-      <c r="G54" s="2">
-        <v>783</v>
-      </c>
-      <c r="H54" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>146</v>
-      </c>
-      <c r="B55" s="2">
-        <v>310602000</v>
-      </c>
-      <c r="C55" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1</v>
-      </c>
       <c r="G55" s="2">
-        <v>25</v>
+        <v>1083</v>
       </c>
       <c r="H55" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>142</v>
+      <c r="A56" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B56" s="2">
-        <v>2767891901</v>
+        <v>2785180701</v>
       </c>
       <c r="C56" s="2">
         <v>201801</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
       </c>
       <c r="G56" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H56" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>147</v>
+      <c r="A57" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C57" s="2">
-        <v>201801</v>
+        <v>201811</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
@@ -2093,78 +2108,78 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>146</v>
+      <c r="A58" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B58" s="2">
-        <v>553990000</v>
+        <v>2771940801</v>
       </c>
       <c r="C58" s="2">
-        <v>201801</v>
+        <v>201848</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F58" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G58" s="2">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="H58" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B59" s="2">
-        <v>7208420100</v>
+        <v>2907731701</v>
       </c>
       <c r="C59" s="2">
-        <v>201801</v>
+        <v>201824</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G59" s="2">
-        <v>98</v>
+        <v>334</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B60" s="2">
-        <v>750080000</v>
+        <v>2907760701</v>
       </c>
       <c r="C60" s="2">
-        <v>201801</v>
+        <v>201810</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
       </c>
       <c r="G60" s="2">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2172,10 +2187,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B61" s="2">
-        <v>2806230701</v>
+        <v>2259240801</v>
       </c>
       <c r="C61" s="2">
         <v>201801</v>
@@ -2184,76 +2199,76 @@
         <v>8</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F61" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G61" s="2">
-        <v>312</v>
+        <v>118</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="2">
+        <v>201805</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2">
         <v>17</v>
       </c>
-      <c r="B62" s="2">
-        <v>2767891801</v>
-      </c>
-      <c r="C62" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2">
-        <v>1</v>
-      </c>
       <c r="G62" s="2">
-        <v>79</v>
+        <v>1342</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B63" s="2">
+        <v>174420000</v>
       </c>
       <c r="C63" s="2">
-        <v>201801</v>
+        <v>201807</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F63" s="2">
         <v>2</v>
       </c>
       <c r="G63" s="2">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B64" s="2">
-        <v>2342730701</v>
+        <v>2965240801</v>
       </c>
       <c r="C64" s="2">
         <v>201801</v>
@@ -2262,13 +2277,13 @@
         <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F64" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G64" s="2">
-        <v>267</v>
+        <v>1027</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -2276,36 +2291,36 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2">
-        <v>201801</v>
+        <v>201817</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F65" s="2">
         <v>2</v>
       </c>
       <c r="G65" s="2">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="H65" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="2">
-        <v>487611000</v>
+        <v>11</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C66" s="2">
         <v>201801</v>
@@ -2314,13 +2329,13 @@
         <v>8</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F66" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66" s="2">
-        <v>100</v>
+        <v>395</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -2328,51 +2343,51 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" s="2">
-        <v>2969530701</v>
+        <v>19</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C67" s="2">
-        <v>201801</v>
+        <v>201808</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F67" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G67" s="2">
-        <v>474</v>
+        <v>163</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2">
-        <v>201801</v>
+        <v>201808</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
       </c>
       <c r="G68" s="2">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -2380,36 +2395,36 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2812540601</v>
       </c>
       <c r="C69" s="2">
-        <v>201801</v>
+        <v>201813</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G69" s="2">
-        <v>676</v>
+        <v>1204</v>
       </c>
       <c r="H69" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="B70" s="2">
+        <v>774697200</v>
       </c>
       <c r="C70" s="2">
         <v>201801</v>
@@ -2418,117 +2433,117 @@
         <v>8</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F70" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G70" s="2">
-        <v>356</v>
+        <v>29</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="2">
-        <v>2975621701</v>
+        <v>11</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C71" s="2">
-        <v>201801</v>
+        <v>201803</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F71" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2">
-        <v>237</v>
+        <v>1639</v>
       </c>
       <c r="H71" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="2">
+        <v>201805</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2">
+        <v>6</v>
+      </c>
+      <c r="G72" s="2">
+        <v>521</v>
+      </c>
+      <c r="H72" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="2">
+        <v>174450000</v>
+      </c>
+      <c r="C73" s="2">
+        <v>201817</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="2">
+        <v>5</v>
+      </c>
+      <c r="G73" s="2">
+        <v>135</v>
+      </c>
+      <c r="H73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="2">
+        <v>882282000</v>
+      </c>
+      <c r="C74" s="2">
+        <v>201812</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
         <v>22</v>
-      </c>
-      <c r="B72" s="2">
-        <v>2916420901</v>
-      </c>
-      <c r="C72" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2">
-        <v>2</v>
-      </c>
-      <c r="G72" s="2">
-        <v>138</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>132</v>
-      </c>
-      <c r="B73" s="2">
-        <v>619990000</v>
-      </c>
-      <c r="C73" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="2">
-        <v>1</v>
-      </c>
-      <c r="G73" s="2">
-        <v>12</v>
-      </c>
-      <c r="H73" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>127</v>
-      </c>
-      <c r="B74" s="2">
-        <v>2569640801</v>
-      </c>
-      <c r="C74" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="2">
-        <v>1</v>
-      </c>
-      <c r="G74" s="2">
-        <v>58</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -2536,10 +2551,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="2">
-        <v>2840520701</v>
+        <v>11</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C75" s="2">
         <v>201801</v>
@@ -2548,65 +2563,65 @@
         <v>8</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F75" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2">
-        <v>937</v>
+        <v>1780</v>
       </c>
       <c r="H75" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B76" s="2">
-        <v>7009720701</v>
+        <v>7030080600</v>
       </c>
       <c r="C76" s="2">
-        <v>201801</v>
+        <v>201810</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F76" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76" s="2">
-        <v>56</v>
+        <v>755</v>
       </c>
       <c r="H76" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>146</v>
+      <c r="A77" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B77" s="2">
-        <v>174451000</v>
+        <v>627890000</v>
       </c>
       <c r="C77" s="2">
-        <v>201801</v>
+        <v>201802</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
       </c>
       <c r="G77" s="2">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -2614,10 +2629,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="2">
-        <v>2788030701</v>
+        <v>19</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C78" s="2">
         <v>201801</v>
@@ -2626,154 +2641,154 @@
         <v>8</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="H78" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="2">
-        <v>2771940801</v>
+        <v>11</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C79" s="2">
-        <v>201801</v>
+        <v>201808</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F79" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79" s="2">
-        <v>132</v>
+        <v>311</v>
       </c>
       <c r="H79" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="2">
-        <v>806290000</v>
+        <v>11</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C80" s="2">
-        <v>201801</v>
+        <v>201802</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F80" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G80" s="2">
-        <v>118</v>
+        <v>1706</v>
       </c>
       <c r="H80" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>156</v>
-      </c>
-      <c r="B81" s="2">
-        <v>829590000</v>
+      <c r="A81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C81" s="2">
-        <v>201801</v>
+        <v>201808</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F81" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G81" s="2">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="H81" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>147</v>
-      </c>
-      <c r="B82" s="2">
-        <v>445790000</v>
+      <c r="A82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C82" s="2">
-        <v>201801</v>
+        <v>201804</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F82" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G82" s="2">
-        <v>24</v>
+        <v>395</v>
       </c>
       <c r="H82" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2924420701</v>
       </c>
       <c r="C83" s="2">
-        <v>201801</v>
+        <v>201831</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F83" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G83" s="2">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="H83" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>149</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>40</v>
+      <c r="A84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="2">
+        <v>174420000</v>
       </c>
       <c r="C84" s="2">
         <v>201801</v>
@@ -2782,79 +2797,79 @@
         <v>8</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F84" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G84" s="2">
-        <v>89</v>
+        <v>823</v>
       </c>
       <c r="H84" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>167</v>
-      </c>
-      <c r="B85" s="2">
-        <v>601090000</v>
+      <c r="A85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C85" s="2">
-        <v>201801</v>
+        <v>201806</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F85" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G85" s="2">
-        <v>238</v>
+        <v>553</v>
       </c>
       <c r="H85" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>181</v>
-      </c>
-      <c r="B86" s="2">
-        <v>735090000</v>
+      <c r="A86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C86" s="2">
-        <v>201801</v>
+        <v>201817</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F86" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86" s="2">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>125</v>
-      </c>
-      <c r="B87" s="2">
-        <v>2870731701</v>
+      <c r="A87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C87" s="2">
-        <v>201801</v>
+        <v>201845</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>8</v>
@@ -2863,21 +2878,21 @@
         <v>9</v>
       </c>
       <c r="F87" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="G87" s="2">
-        <v>64</v>
+        <v>4370</v>
       </c>
       <c r="H87" s="2">
-        <v>0</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>125</v>
+      <c r="A88" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B88" s="2">
-        <v>829590000</v>
+        <v>1085190100</v>
       </c>
       <c r="C88" s="2">
         <v>201801</v>
@@ -2889,10 +2904,10 @@
         <v>9</v>
       </c>
       <c r="F88" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2">
-        <v>59</v>
+        <v>2100</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
@@ -2900,45 +2915,45 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C89" s="2">
-        <v>201801</v>
+        <v>201802</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F89" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2">
-        <v>35</v>
+        <v>1390</v>
       </c>
       <c r="H89" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4840520804</v>
       </c>
       <c r="C90" s="2">
-        <v>201801</v>
+        <v>201826</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
@@ -2951,115 +2966,115 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>127</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>43</v>
+      <c r="A91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2615920801</v>
       </c>
       <c r="C91" s="2">
-        <v>201801</v>
+        <v>201839</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F91" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" s="2">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>127</v>
-      </c>
-      <c r="B92" s="2">
-        <v>2797420801</v>
+      <c r="A92" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C92" s="2">
         <v>201801</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
       </c>
       <c r="G92" s="2">
+        <v>59</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="2">
+        <v>6831942600</v>
+      </c>
+      <c r="C93" s="2">
+        <v>201909</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2">
         <v>42</v>
       </c>
-      <c r="H92" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>128</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C93" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="2">
+        <v>201840</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="2">
-        <v>1</v>
-      </c>
-      <c r="G93" s="2">
-        <v>34</v>
-      </c>
-      <c r="H93" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>133</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C94" s="2">
-        <v>201801</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F94" s="2">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="G94" s="2">
-        <v>69</v>
+        <v>7336</v>
       </c>
       <c r="H94" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B95" s="2">
-        <v>2990680701</v>
+      <c r="B95" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C95" s="2">
         <v>201801</v>
@@ -3068,39 +3083,39 @@
         <v>8</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F95" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G95" s="2">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="H95" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>135</v>
-      </c>
-      <c r="B96" s="2">
-        <v>2907780501</v>
+      <c r="A96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C96" s="2">
-        <v>201801</v>
+        <v>201804</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F96" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G96" s="2">
-        <v>69</v>
+        <v>712</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -3108,77 +3123,77 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="2">
-        <v>2797420701</v>
+        <v>11</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C97" s="2">
-        <v>201801</v>
+        <v>201811</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F97" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G97" s="2">
-        <v>218</v>
+        <v>395</v>
       </c>
       <c r="H97" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C98" s="2">
-        <v>201801</v>
+        <v>201807</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F98" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G98" s="2">
-        <v>483</v>
+        <v>356</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>135</v>
-      </c>
-      <c r="B99" s="2">
-        <v>2701640801</v>
+      <c r="A99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C99" s="2">
-        <v>201801</v>
+        <v>201816</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
@@ -3186,54 +3201,54 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2965240701</v>
       </c>
       <c r="C100" s="2">
-        <v>201801</v>
+        <v>201806</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="G100" s="2">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>135</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>47</v>
+      <c r="A101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2464540801</v>
       </c>
       <c r="C101" s="2">
-        <v>201801</v>
+        <v>201803</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
       </c>
       <c r="G101" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H101" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
